--- a/Help_Data_Aquisition.xlsx
+++ b/Help_Data_Aquisition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\Code_Projects\MSc_Geomatics\Advanced_GIS\Assingment_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67196AAE-D219-492A-B4CE-CAAF3EB1FEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845DE2FA-29A9-410F-BB2C-A0D4CFD7DBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19170" yWindow="0" windowWidth="19335" windowHeight="15585" xr2:uid="{FC0F1F0F-9C01-40C8-9167-C84682A7B14B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FC0F1F0F-9C01-40C8-9167-C84682A7B14B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="116">
   <si>
     <t>Column Name</t>
   </si>
@@ -59,9 +59,6 @@
     <t>How old are you?</t>
   </si>
   <si>
-    <t>(int)</t>
-  </si>
-  <si>
     <t>Are you in a good mood right now?</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>0=Yes, this meets my need for autonomy, 1=No, I’d rather have someone else decide for me, 2 = Not sure.</t>
   </si>
   <si>
-    <t>6_Find_page_land</t>
-  </si>
-  <si>
     <t>1_Participant_ID</t>
   </si>
   <si>
@@ -95,12 +89,6 @@
     <t>5_Motivation</t>
   </si>
   <si>
-    <t>7_Success_land</t>
-  </si>
-  <si>
-    <t>Did you found the webpage in a reasonable time (less than 30s)?</t>
-  </si>
-  <si>
     <t>Were you able to open the page on the first hit?</t>
   </si>
   <si>
@@ -131,126 +119,21 @@
     <t>Scale: unclear (0) &lt;---&gt; clear (4)</t>
   </si>
   <si>
-    <t>13_Find_page_city</t>
-  </si>
-  <si>
-    <t>14_Success_city</t>
-  </si>
-  <si>
-    <t>8_Difficulty_land</t>
-  </si>
-  <si>
-    <t>9_Interface_land</t>
-  </si>
-  <si>
-    <t>10_Map_colors_land</t>
-  </si>
-  <si>
-    <t>11_Buttons_land</t>
-  </si>
-  <si>
-    <t>12_Style_land</t>
-  </si>
-  <si>
     <t>Buttons</t>
   </si>
   <si>
-    <t>15_Difficulty_city</t>
-  </si>
-  <si>
-    <t>16_Interface_city</t>
-  </si>
-  <si>
-    <t>17_Map_colors_city</t>
-  </si>
-  <si>
-    <t>18_Buttons_city</t>
-  </si>
-  <si>
-    <t>19_Style_city</t>
-  </si>
-  <si>
-    <t>20_understanding_task</t>
-  </si>
-  <si>
     <t>Do you understand the task you are going to complete?</t>
   </si>
   <si>
     <t>0=yes totally, 1=not really, 2=no</t>
   </si>
   <si>
-    <t>Did you get the right result?</t>
-  </si>
-  <si>
-    <t>21_completion_task</t>
-  </si>
-  <si>
-    <t>22_Satisfaction</t>
-  </si>
-  <si>
     <t>How do you feel about the task result you reached?</t>
   </si>
   <si>
     <t>0=satisfied, 1= not satisfied</t>
   </si>
   <si>
-    <t>23_1_readability</t>
-  </si>
-  <si>
-    <t>23_2_clear</t>
-  </si>
-  <si>
-    <t>23_3_interactive</t>
-  </si>
-  <si>
-    <t>23_4_information</t>
-  </si>
-  <si>
-    <t>23_5_learning</t>
-  </si>
-  <si>
-    <t>23_6_exploration</t>
-  </si>
-  <si>
-    <t>23_7_names</t>
-  </si>
-  <si>
-    <t>23_8_material</t>
-  </si>
-  <si>
-    <t>23_9_interesting</t>
-  </si>
-  <si>
-    <t>23_10_mental</t>
-  </si>
-  <si>
-    <t>23_11_task</t>
-  </si>
-  <si>
-    <t>23_12_pressure</t>
-  </si>
-  <si>
-    <t>23_13_rapid</t>
-  </si>
-  <si>
-    <t>23_14_success</t>
-  </si>
-  <si>
-    <t>23_15_satisfaction</t>
-  </si>
-  <si>
-    <t>23_16_work</t>
-  </si>
-  <si>
-    <t>23_17_insecure</t>
-  </si>
-  <si>
-    <t>24_Comments</t>
-  </si>
-  <si>
-    <t>23_Best</t>
-  </si>
-  <si>
     <t>Please indicate the best suited portal.</t>
   </si>
   <si>
@@ -266,9 +149,6 @@
     <t>The portal gives you a good interactive experience when you are using it.</t>
   </si>
   <si>
-    <t>The portal always keeps you informed about what it is doing.</t>
-  </si>
-  <si>
     <t>Learning to operate the system is easy.</t>
   </si>
   <si>
@@ -281,9 +161,6 @@
     <t>Supplemental reference materials are clear and helpful.</t>
   </si>
   <si>
-    <t>I found the study interesting.</t>
-  </si>
-  <si>
     <t>How much mental and perceptual activity was required (eg. thinking, loo-</t>
   </si>
   <si>
@@ -293,18 +170,12 @@
     <t>How much time pressure did you feel?</t>
   </si>
   <si>
-    <t>Was the pace rapid and frantic?</t>
-  </si>
-  <si>
     <t>How successful do you think you were in accomplishing the goals of the task?</t>
   </si>
   <si>
     <t>How satisfied were you with your performance in accomplishing these goals?</t>
   </si>
   <si>
-    <t>How hard did you have to work (mentally and physically) to accomplish your</t>
-  </si>
-  <si>
     <t>How insecure, discouraged, irritated, stressed and annoyed did you feel du-</t>
   </si>
   <si>
@@ -317,22 +188,202 @@
     <t>(string)</t>
   </si>
   <si>
-    <t>26_Time_needed_city</t>
-  </si>
-  <si>
-    <t>25_Time_needed_land</t>
-  </si>
-  <si>
-    <t>Time in seconds needed for task</t>
-  </si>
-  <si>
-    <t>28_Time_needed_find_website</t>
-  </si>
-  <si>
-    <t>27_Time_needed_find_website</t>
-  </si>
-  <si>
-    <t>Time in seconds needed for finding website</t>
+    <t>6_German</t>
+  </si>
+  <si>
+    <t>Do you understand German</t>
+  </si>
+  <si>
+    <t>How much time did you need to find the webpage?</t>
+  </si>
+  <si>
+    <t>(int) seconds</t>
+  </si>
+  <si>
+    <t>7_time_page_land</t>
+  </si>
+  <si>
+    <t>8_first_hint_land</t>
+  </si>
+  <si>
+    <t>0=Yes, 1=no</t>
+  </si>
+  <si>
+    <t>9_Difficulty_land</t>
+  </si>
+  <si>
+    <t>10_Interface_land</t>
+  </si>
+  <si>
+    <t>11_Readability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Readability </t>
+  </si>
+  <si>
+    <t>12_Map_colors_land</t>
+  </si>
+  <si>
+    <t>13_Buttons_land</t>
+  </si>
+  <si>
+    <t>14_Style_land</t>
+  </si>
+  <si>
+    <t>15_time_page_city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How much time did you need to find the webpage? </t>
+  </si>
+  <si>
+    <t>17_Difficulty_city</t>
+  </si>
+  <si>
+    <t>18_Interface_city</t>
+  </si>
+  <si>
+    <t>19_Readability</t>
+  </si>
+  <si>
+    <t>20_Map_colors_city</t>
+  </si>
+  <si>
+    <t>21_Buttons_city</t>
+  </si>
+  <si>
+    <t>22_Style_city</t>
+  </si>
+  <si>
+    <t>23_understanding_task</t>
+  </si>
+  <si>
+    <t>24_completion_land</t>
+  </si>
+  <si>
+    <t>24_completion_city</t>
+  </si>
+  <si>
+    <t>Did you need the help of the assistant (Basel Land)</t>
+  </si>
+  <si>
+    <t>Did you get the right result (Basel Land)</t>
+  </si>
+  <si>
+    <t>Did you get the right result (Basel Stadt)</t>
+  </si>
+  <si>
+    <t>26_help_land</t>
+  </si>
+  <si>
+    <t>27_help_city</t>
+  </si>
+  <si>
+    <t>Did you need the help of the assistant (Basel Stadt)</t>
+  </si>
+  <si>
+    <t>How much time did you need to complete the task (Basel Land)</t>
+  </si>
+  <si>
+    <t>29_time_city</t>
+  </si>
+  <si>
+    <t>28_time_land</t>
+  </si>
+  <si>
+    <t>How much time did you need to complete the task (Basel Stadt)</t>
+  </si>
+  <si>
+    <t>30_Satisfaction</t>
+  </si>
+  <si>
+    <t>31_Best</t>
+  </si>
+  <si>
+    <t>31_1_readability_land</t>
+  </si>
+  <si>
+    <t>31_2_clear_land</t>
+  </si>
+  <si>
+    <t>31_3_interactive_land</t>
+  </si>
+  <si>
+    <t>31_4_learning_land</t>
+  </si>
+  <si>
+    <t>31_7_material_land</t>
+  </si>
+  <si>
+    <t>31_6_names_land</t>
+  </si>
+  <si>
+    <t>31_5_exploration_land</t>
+  </si>
+  <si>
+    <t>31_8_interest_land</t>
+  </si>
+  <si>
+    <t>31_9_mental_land</t>
+  </si>
+  <si>
+    <t>31_10_pressure_land</t>
+  </si>
+  <si>
+    <t>31_13_insecure_land</t>
+  </si>
+  <si>
+    <t>31_11_success_land</t>
+  </si>
+  <si>
+    <t>31_12_satisfaction_land</t>
+  </si>
+  <si>
+    <t>32_Comments</t>
+  </si>
+  <si>
+    <t>(int) years</t>
+  </si>
+  <si>
+    <t>16_first_hint_city</t>
+  </si>
+  <si>
+    <t>31_16_interactive_city</t>
+  </si>
+  <si>
+    <t>31_14_readability_city</t>
+  </si>
+  <si>
+    <t>31_15_clear_city</t>
+  </si>
+  <si>
+    <t>31_17_learning_city</t>
+  </si>
+  <si>
+    <t>31_18_exploration_city</t>
+  </si>
+  <si>
+    <t>31_19_names_city</t>
+  </si>
+  <si>
+    <t>31_20_material_city</t>
+  </si>
+  <si>
+    <t>31_21_interest_city</t>
+  </si>
+  <si>
+    <t>31_22_mental_city</t>
+  </si>
+  <si>
+    <t>31_23_pressure_city</t>
+  </si>
+  <si>
+    <t>31_24_success_city</t>
+  </si>
+  <si>
+    <t>31_25_satisfaction_city</t>
+  </si>
+  <si>
+    <t>31_26_insecure_city</t>
   </si>
 </sst>
 </file>
@@ -691,21 +742,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B55C216-C79D-4AFF-8888-7A93821ECF13}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="60" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="67.7109375" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="54.5546875" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" customWidth="1"/>
+    <col min="4" max="4" width="37.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -719,12 +770,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -733,621 +784,833 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
+        <v>62</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
+        <v>63</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
+        <v>68</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>48</v>
+      <c r="B22" t="s">
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>23.1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
       <c r="D25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>23.2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
       <c r="D26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>23.3</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31.1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>31.2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>31.3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>31.4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>31.5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>31.6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>31.7</v>
+      </c>
+      <c r="B39" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>23.4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>23.5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>23.6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>23.7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>23.8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>23.9</v>
-      </c>
-      <c r="B33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>23.1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>23.11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>23.12</v>
-      </c>
-      <c r="B36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>23.13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>23.14</v>
-      </c>
-      <c r="B38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>23.15</v>
-      </c>
-      <c r="B39" t="s">
-        <v>66</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>23.16</v>
+        <v>31.8</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>23.17</v>
+        <v>31.9</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>24</v>
+        <v>31.1</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>25</v>
+        <v>31.11</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>26</v>
+        <v>31.12</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>27</v>
+        <v>31.13</v>
       </c>
       <c r="B45" t="s">
         <v>97</v>
       </c>
-      <c r="C45" t="s">
-        <v>98</v>
+      <c r="C45" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>28</v>
+        <v>31.14</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>31.15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>31.16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>31.17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>31.18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>31.19</v>
+      </c>
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>31.2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>31.21</v>
+      </c>
+      <c r="B53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>31.22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>31.23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>31.24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>31.25</v>
+      </c>
+      <c r="B57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>31.26</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>32</v>
+      </c>
+      <c r="B59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C75" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
